--- a/www/ig/nos/ValueSet-JDV-J238-TypeOffre-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J238-TypeOffre-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J23-TypeOffre-ROR/FHIR/JDV-J238-TypeOffre-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J238-TypeOffre-ROR/FHIR/JDV-J238-TypeOffre-ROR</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -333,7 +339,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>Maison d'accueil spécialisé (MAS)</t>
+    <t>Maison d'accueil spécialisée (MAS)</t>
   </si>
   <si>
     <t>41</t>
@@ -423,7 +429,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>Unité d'enseignement externe</t>
+    <t>Unité d'enseignement externalisée</t>
   </si>
   <si>
     <t>57</t>
@@ -834,7 +840,82 @@
     <t>Unité de soins intensifs (USI) de spécialité</t>
   </si>
   <si>
-    <t/>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Centre de protection maternelle et infantile (PMI)</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Structure Douleur Chronique (SDC)</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Centre régional du psychotraumatisme (CRP)</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile socle</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile ante et post-partum</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile réadaptation</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Unité d'hospitalisation à domicile enfants de moins de trois ans</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide et soins</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Service autonomie à domicile (SAD) aide</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Maison des adolescents (MDA)</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Points Accueil Ecoute Jeunes (PAEJ)</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Centre de ressources territorial (CRT)</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Maison sport-santé</t>
   </si>
   <si>
     <t>System URI</t>
@@ -974,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1080,20 +1161,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,1010 +1204,1114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J238-TypeOffre-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J238-TypeOffre-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,7 +351,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>Centre de rééducation professionnel (CRP)</t>
+    <t>Etablissements et Service de Réadaptation Professionnelle (ESRP)</t>
   </si>
   <si>
     <t>45</t>
@@ -1132,6 +1132,414 @@
   </si>
   <si>
     <t>Unités de soins palliatifs</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine interne</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Dispositif de consultation dédié pour les personnes en situation de handicap</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Dispositif d'Appui à la Coordination (DAC)</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'allergologie</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anatomo-cytho-pathologie</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'anesthésie-réanimation</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de cardiologie</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie orthopédique et traumatologique</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie plastique</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie thoracique et cardiovasculaire</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie vasculaire</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de chirurgie viscérale et digestive</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de dermatologie</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de diététique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de génétique médicale</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gériatrie</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de gynécologie</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de kinésithérapie</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine générale</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine interne</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine vasculaire</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de néphrologie</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurochirurgie</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de neurologie</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédiatrie</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pédicure-podologie</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de pneumologie</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychiatrie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychologie</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de psychomotricité</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de radiologie</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de rhumatologie</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de sages-femmes</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de stomatologie, chirurgie orale et maxillo faciale</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'endocrinologie, diabétologie et nutrition</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ergothérapie</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Cabinet de ville des maladies infectieuses et tropicales (MIT)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hématologie</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'hépato-gastro-entérologie</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'oncologie</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'ophtalmologie</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthophonie</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'orthoptie</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Cabinet de ville d'urologie</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Cabinet de ville infirmier</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie dentaire</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de chirurgie orale</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire de médecine bucco-dentaire</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Cabinet dentaire d'orthopédie dento-faciale</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anatomo-cytho-pathologie</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du sport</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine légale et expertise médicale</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine physique et réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'urologie</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine générale</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'orthopédie dento-faciale (odontologie)</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Unité hospitalière d'anesthésie</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Unité de médecine polyvalente</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine nucléaire</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de médecine du travail</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie pédiatrique</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Unité hospitalière de chirurgie plastique, reconstructrice et esthétique</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Cabinet de ville de médecine intensive et réanimation (MIR)</t>
   </si>
   <si>
     <t/>
@@ -1403,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,15 +3218,559 @@
         <v>373</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
